--- a/vig_text_english_dutch.xlsx
+++ b/vig_text_english_dutch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminjargow/Documents/01_ResMas/Internship/Paradigm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esmeekouwen/Documents/Mijn Documenten/Universiteit/Moral Polarisation Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5917771-72B9-A245-AADF-CE0210004CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9E0CE-5306-EC46-9113-157D6DB75F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vig_text_engl_dutch" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>You see a boy telling a woman that she looks just like her overweight bulldog.</t>
   </si>
   <si>
-    <t>U ziet een jongen tegen een vrouw zetten dat ze precies op haar buldog met overgewicht lijkt.</t>
-  </si>
-  <si>
     <t>You see a woman spanking her child with a spatula for getting bad grades in school.</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>You see a teenage boy chuckling at an amputee he passes by while on the subway.</t>
   </si>
   <si>
-    <t>U ziet een tienerjongen grinniken om een</t>
-  </si>
-  <si>
     <t>You see a runner taking a shortcut on the course during the marathon in order to win.</t>
   </si>
   <si>
@@ -1168,6 +1162,12 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>U ziet een jongen tegen een vrouw zeggen dat ze precies op haar buldog met overgewicht lijkt.</t>
+  </si>
+  <si>
+    <t>U ziet een tienerjongen grinniken om een geamputeerde man die hij passeert in de metro.</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1234,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{13E8D6BC-061C-8B4F-9955-0D5DC7641B02}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1453,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1465,19 +1465,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1508,10 +1508,10 @@
         <v>loy15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A74,vig_key!A:D,4,FALSE)</f>
@@ -1527,10 +1527,10 @@
         <v>auth15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A73,vig_key!A:D,4,FALSE)</f>
@@ -1546,10 +1546,10 @@
         <v>carephys05</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A72,vig_key!A:D,4,FALSE)</f>
@@ -1565,10 +1565,10 @@
         <v>careemo05</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A71,vig_key!A:D,4,FALSE)</f>
@@ -1584,10 +1584,10 @@
         <v>lib10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A115,vig_key!A:D,4,FALSE)</f>
@@ -1603,10 +1603,10 @@
         <v>careemo14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A70,vig_key!A:D,4,FALSE)</f>
@@ -1622,10 +1622,10 @@
         <v>fair13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A69,vig_key!A:D,4,FALSE)</f>
@@ -1641,10 +1641,10 @@
         <v>fair10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A68,vig_key!A:D,4,FALSE)</f>
@@ -1660,10 +1660,10 @@
         <v>socnorm11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A67,vig_key!A:D,4,FALSE)</f>
@@ -1679,10 +1679,10 @@
         <v>lib11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A66,vig_key!A:D,4,FALSE)</f>
@@ -1698,10 +1698,10 @@
         <v>socnorm05</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A111,vig_key!A:D,4,FALSE)</f>
@@ -1717,10 +1717,10 @@
         <v>lib01</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A65,vig_key!A:D,4,FALSE)</f>
@@ -1736,10 +1736,10 @@
         <v>pur02</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A106,vig_key!A:D,4,FALSE)</f>
@@ -1755,10 +1755,10 @@
         <v>lib04</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A114,vig_key!A:D,4,FALSE)</f>
@@ -1774,10 +1774,10 @@
         <v>loy07</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A64,vig_key!A:D,4,FALSE)</f>
@@ -1793,10 +1793,10 @@
         <v>auth10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A63,vig_key!A:D,4,FALSE)</f>
@@ -1812,10 +1812,10 @@
         <v>loy04</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A62,vig_key!A:D,4,FALSE)</f>
@@ -1831,10 +1831,10 @@
         <v>pur12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A112,vig_key!A:D,4,FALSE)</f>
@@ -1850,10 +1850,10 @@
         <v>loy02</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A117,vig_key!A:D,4,FALSE)</f>
@@ -1869,10 +1869,10 @@
         <v>lib02</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A61,vig_key!A:D,4,FALSE)</f>
@@ -1888,10 +1888,10 @@
         <v>carephys04</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A60,vig_key!A:D,4,FALSE)</f>
@@ -1907,10 +1907,10 @@
         <v>carephys12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A59,vig_key!A:D,4,FALSE)</f>
@@ -1926,10 +1926,10 @@
         <v>socnorm02</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A77,vig_key!A:D,4,FALSE)</f>
@@ -1945,10 +1945,10 @@
         <v>careemo10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A97,vig_key!A:D,4,FALSE)</f>
@@ -1964,10 +1964,10 @@
         <v>careemo11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A57,vig_key!A:D,4,FALSE)</f>
@@ -1983,10 +1983,10 @@
         <v>careemo07</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A98,vig_key!A:D,4,FALSE)</f>
@@ -2002,10 +2002,10 @@
         <v>auth03</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A56,vig_key!A:D,4,FALSE)</f>
@@ -2021,10 +2021,10 @@
         <v>careemo04</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A104,vig_key!A:D,4,FALSE)</f>
@@ -2040,10 +2040,10 @@
         <v>lib15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A94,vig_key!A:D,4,FALSE)</f>
@@ -2059,10 +2059,10 @@
         <v>loy05</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A119,vig_key!A:D,4,FALSE)</f>
@@ -2078,10 +2078,10 @@
         <v>carephys08</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A75,vig_key!A:D,4,FALSE)</f>
@@ -2097,10 +2097,10 @@
         <v>fair04</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A76,vig_key!A:D,4,FALSE)</f>
@@ -2116,10 +2116,10 @@
         <v>carephys14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A84,vig_key!A:D,4,FALSE)</f>
@@ -2135,10 +2135,10 @@
         <v>fair08</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A90,vig_key!A:D,4,FALSE)</f>
@@ -2154,10 +2154,10 @@
         <v>loy11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E37" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A91,vig_key!A:D,4,FALSE)</f>
@@ -2173,10 +2173,10 @@
         <v>auth08</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A96,vig_key!A:D,4,FALSE)</f>
@@ -2192,10 +2192,10 @@
         <v>carephys10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E39" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A88,vig_key!A:D,4,FALSE)</f>
@@ -2211,10 +2211,10 @@
         <v>lib06</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A87,vig_key!A:D,4,FALSE)</f>
@@ -2230,10 +2230,10 @@
         <v>loy09</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A78,vig_key!A:D,4,FALSE)</f>
@@ -2249,10 +2249,10 @@
         <v>careemo06</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A85,vig_key!A:D,4,FALSE)</f>
@@ -2268,10 +2268,10 @@
         <v>auth05</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A83,vig_key!A:D,4,FALSE)</f>
@@ -2287,10 +2287,10 @@
         <v>auth09</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A82,vig_key!A:D,4,FALSE)</f>
@@ -2306,10 +2306,10 @@
         <v>auth06</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A81,vig_key!A:D,4,FALSE)</f>
@@ -2325,10 +2325,10 @@
         <v>auth01</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A116,vig_key!A:D,4,FALSE)</f>
@@ -2344,10 +2344,10 @@
         <v>socnorm06</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E47" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A99,vig_key!A:D,4,FALSE)</f>
@@ -2363,10 +2363,10 @@
         <v>socnorm13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A79,vig_key!A:D,4,FALSE)</f>
@@ -2382,10 +2382,10 @@
         <v>socnorm12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A86,vig_key!A:D,4,FALSE)</f>
@@ -2401,10 +2401,10 @@
         <v>fair01</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A89,vig_key!A:D,4,FALSE)</f>
@@ -2420,10 +2420,10 @@
         <v>pur14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A80,vig_key!A:D,4,FALSE)</f>
@@ -2439,10 +2439,10 @@
         <v>pur15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A55,vig_key!A:D,4,FALSE)</f>
@@ -2458,10 +2458,10 @@
         <v>lib08</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E53" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A58,vig_key!A:D,4,FALSE)</f>
@@ -2477,10 +2477,10 @@
         <v>socnorm15</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A53,vig_key!A:D,4,FALSE)</f>
@@ -2496,10 +2496,10 @@
         <v>fair02</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A52,vig_key!A:D,4,FALSE)</f>
@@ -2515,10 +2515,10 @@
         <v>pur08</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A103,vig_key!A:D,4,FALSE)</f>
@@ -2534,10 +2534,10 @@
         <v>pur10</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A24,vig_key!A:D,4,FALSE)</f>
@@ -2553,10 +2553,10 @@
         <v>carephys02</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A23,vig_key!A:D,4,FALSE)</f>
@@ -2572,10 +2572,10 @@
         <v>carephys13</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A22,vig_key!A:D,4,FALSE)</f>
@@ -2591,10 +2591,10 @@
         <v>careemo12</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A21,vig_key!A:D,4,FALSE)</f>
@@ -2610,10 +2610,10 @@
         <v>pur01</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A110,vig_key!A:D,4,FALSE)</f>
@@ -2629,10 +2629,10 @@
         <v>socnorm09</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A19,vig_key!A:D,4,FALSE)</f>
@@ -2648,10 +2648,10 @@
         <v>careemo02</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A18,vig_key!A:D,4,FALSE)</f>
@@ -2667,10 +2667,10 @@
         <v>auth14</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A17,vig_key!A:D,4,FALSE)</f>
@@ -2686,10 +2686,10 @@
         <v>loy03</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A16,vig_key!A:D,4,FALSE)</f>
@@ -2705,10 +2705,10 @@
         <v>fair06</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A15,vig_key!A:D,4,FALSE)</f>
@@ -2724,10 +2724,10 @@
         <v>careemo01</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E67" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A121,vig_key!A:D,4,FALSE)</f>
@@ -2743,10 +2743,10 @@
         <v>socnorm14</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A25,vig_key!A:D,4,FALSE)</f>
@@ -2762,10 +2762,10 @@
         <v>carephys06</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E69" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A120,vig_key!A:D,4,FALSE)</f>
@@ -2781,10 +2781,10 @@
         <v>socnorm03</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A14,vig_key!A:D,4,FALSE)</f>
@@ -2803,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="E71" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A12,vig_key!A:D,4,FALSE)</f>
@@ -2838,10 +2838,10 @@
         <v>pur09</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E73" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A108,vig_key!A:D,4,FALSE)</f>
@@ -2895,10 +2895,10 @@
         <v>lib05</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A113,vig_key!A:D,4,FALSE)</f>
@@ -2971,10 +2971,10 @@
         <v>carephys03</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A95,vig_key!A:D,4,FALSE)</f>
@@ -3047,10 +3047,10 @@
         <v>lib12</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A13,vig_key!A:D,4,FALSE)</f>
@@ -3066,10 +3066,10 @@
         <v>auth13</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E85" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A26,vig_key!A:D,4,FALSE)</f>
@@ -3085,10 +3085,10 @@
         <v>auth12</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A27,vig_key!A:D,4,FALSE)</f>
@@ -3104,10 +3104,10 @@
         <v>lib07</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E87" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A28,vig_key!A:D,4,FALSE)</f>
@@ -3123,10 +3123,10 @@
         <v>loy01</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A51,vig_key!A:D,4,FALSE)</f>
@@ -3142,10 +3142,10 @@
         <v>socnorm08</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E89" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A50,vig_key!A:D,4,FALSE)</f>
@@ -3161,10 +3161,10 @@
         <v>carephys01</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A49,vig_key!A:D,4,FALSE)</f>
@@ -3180,10 +3180,10 @@
         <v>fair11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E91" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A109,vig_key!A:D,4,FALSE)</f>
@@ -3199,10 +3199,10 @@
         <v>pur06</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A48,vig_key!A:D,4,FALSE)</f>
@@ -3218,10 +3218,10 @@
         <v>pur05</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E93" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A47,vig_key!A:D,4,FALSE)</f>
@@ -3237,10 +3237,10 @@
         <v>careemo03</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A46,vig_key!A:D,4,FALSE)</f>
@@ -3256,10 +3256,10 @@
         <v>careemo08</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E95" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A45,vig_key!A:D,4,FALSE)</f>
@@ -3275,10 +3275,10 @@
         <v>auth04</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A107,vig_key!A:D,4,FALSE)</f>
@@ -3294,10 +3294,10 @@
         <v>auth07</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E97" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A44,vig_key!A:D,4,FALSE)</f>
@@ -3313,10 +3313,10 @@
         <v>pur13</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A43,vig_key!A:D,4,FALSE)</f>
@@ -3332,10 +3332,10 @@
         <v>fair07</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E99" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A42,vig_key!A:D,4,FALSE)</f>
@@ -3351,10 +3351,10 @@
         <v>fair09</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A118,vig_key!A:D,4,FALSE)</f>
@@ -3370,10 +3370,10 @@
         <v>careemo13</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E101" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A41,vig_key!A:D,4,FALSE)</f>
@@ -3389,10 +3389,10 @@
         <v>carephys11</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A40,vig_key!A:D,4,FALSE)</f>
@@ -3408,10 +3408,10 @@
         <v>loy08</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E103" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A39,vig_key!A:D,4,FALSE)</f>
@@ -3427,10 +3427,10 @@
         <v>careemo09</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A38,vig_key!A:D,4,FALSE)</f>
@@ -3446,10 +3446,10 @@
         <v>careemo15</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E105" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A37,vig_key!A:D,4,FALSE)</f>
@@ -3465,10 +3465,10 @@
         <v>loy13</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A36,vig_key!A:D,4,FALSE)</f>
@@ -3484,10 +3484,10 @@
         <v>socnorm01</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E107" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A35,vig_key!A:D,4,FALSE)</f>
@@ -3503,10 +3503,10 @@
         <v>fair05</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A34,vig_key!A:D,4,FALSE)</f>
@@ -3522,10 +3522,10 @@
         <v>socnorm10</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E109" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A101,vig_key!A:D,4,FALSE)</f>
@@ -3541,10 +3541,10 @@
         <v>lib14</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A33,vig_key!A:D,4,FALSE)</f>
@@ -3560,10 +3560,10 @@
         <v>carephys07</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E111" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A32,vig_key!A:D,4,FALSE)</f>
@@ -3579,10 +3579,10 @@
         <v>pur03</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A31,vig_key!A:D,4,FALSE)</f>
@@ -3598,10 +3598,10 @@
         <v>carephys09</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E113" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A100,vig_key!A:D,4,FALSE)</f>
@@ -3617,10 +3617,10 @@
         <v>fair14</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A30,vig_key!A:D,4,FALSE)</f>
@@ -3636,10 +3636,10 @@
         <v>loy10</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E115" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A105,vig_key!A:D,4,FALSE)</f>
@@ -3655,10 +3655,10 @@
         <v>socnorm07</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A102,vig_key!A:D,4,FALSE)</f>
@@ -3674,10 +3674,10 @@
         <v>fair15</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E117" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A93,vig_key!A:D,4,FALSE)</f>
@@ -3693,10 +3693,10 @@
         <v>loy12</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A29,vig_key!A:D,4,FALSE)</f>
@@ -3712,10 +3712,10 @@
         <v>loy06</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E119" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A92,vig_key!A:D,4,FALSE)</f>
@@ -3731,10 +3731,10 @@
         <v>pur11</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A20,vig_key!A:D,4,FALSE)</f>
@@ -3750,10 +3750,10 @@
         <v>lib03</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>376</v>
       </c>
       <c r="E121" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A54,vig_key!A:D,4,FALSE)</f>
@@ -3785,13 +3785,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3813,13 +3813,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3827,13 +3827,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3841,13 +3841,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3855,13 +3855,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3869,13 +3869,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3883,13 +3883,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3897,13 +3897,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3911,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3925,13 +3925,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3939,13 +3939,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3953,13 +3953,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3967,13 +3967,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3981,13 +3981,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3995,13 +3995,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4009,13 +4009,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4023,13 +4023,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4037,13 +4037,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4051,13 +4051,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4065,13 +4065,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4079,13 +4079,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4093,13 +4093,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4107,13 +4107,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4121,13 +4121,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4135,13 +4135,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,13 +4149,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4163,13 +4163,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4177,13 +4177,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4191,13 +4191,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4205,13 +4205,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4219,13 +4219,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,13 +4233,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4247,13 +4247,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4261,13 +4261,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,13 +4275,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4289,13 +4289,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4303,13 +4303,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4317,13 +4317,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4331,13 +4331,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4345,13 +4345,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4359,13 +4359,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4373,13 +4373,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4387,13 +4387,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4401,13 +4401,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4415,13 +4415,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4429,13 +4429,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,13 +4443,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4457,13 +4457,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4471,13 +4471,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,13 +4485,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4499,13 +4499,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4513,13 +4513,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4527,13 +4527,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4541,13 +4541,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4555,13 +4555,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4569,13 +4569,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4583,13 +4583,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4597,13 +4597,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4611,13 +4611,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4625,13 +4625,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4639,13 +4639,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4653,13 +4653,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4667,13 +4667,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4681,13 +4681,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4695,13 +4695,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4709,13 +4709,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4723,13 +4723,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4737,13 +4737,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4751,13 +4751,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4765,13 +4765,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4779,13 +4779,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4793,13 +4793,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4807,13 +4807,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4821,13 +4821,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4835,13 +4835,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4849,13 +4849,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4863,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4877,13 +4877,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4891,13 +4891,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4905,13 +4905,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4919,13 +4919,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4933,13 +4933,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4947,13 +4947,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4961,13 +4961,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4975,13 +4975,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4989,13 +4989,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5003,13 +5003,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5017,13 +5017,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5031,13 +5031,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5045,13 +5045,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5059,13 +5059,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5073,13 +5073,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5087,13 +5087,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5101,13 +5101,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5115,13 +5115,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5129,13 +5129,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5143,13 +5143,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5157,13 +5157,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5171,13 +5171,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5185,13 +5185,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5199,13 +5199,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5213,13 +5213,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5227,13 +5227,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5241,13 +5241,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5255,13 +5255,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5269,13 +5269,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5283,13 +5283,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5297,13 +5297,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5311,13 +5311,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5325,13 +5325,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5339,13 +5339,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5353,13 +5353,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5367,13 +5367,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5381,13 +5381,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5395,13 +5395,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5409,13 +5409,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5423,13 +5423,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5437,13 +5437,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5451,13 +5451,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5465,13 +5465,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/vig_text_english_dutch.xlsx
+++ b/vig_text_english_dutch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esmeekouwen/Documents/Mijn Documenten/Universiteit/Moral Polarisation Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9E0CE-5306-EC46-9113-157D6DB75F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A21EC-D701-8444-B79D-371E21BFFD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>You see a boy turning up the TV as his father talks about his military service.</t>
   </si>
   <si>
-    <t>U ziet een jongen de tv aanzetten terwijl zijn vader vertelt over zijn militaire dienst.</t>
-  </si>
-  <si>
     <t>You see a boy spray-painting anarchy symbols on the side of the police station.</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t>You see a teenage girl wearing a long trench coat on a hot summer afternoon.</t>
   </si>
   <si>
-    <t>U ziet een tienermeisje in een lange jas op een hete zomermiddag</t>
-  </si>
-  <si>
     <t>You see a girl telling a boy that his older brother is much more attractive than him.</t>
   </si>
   <si>
@@ -1168,6 +1162,12 @@
   </si>
   <si>
     <t>U ziet een tienerjongen grinniken om een geamputeerde man die hij passeert in de metro.</t>
+  </si>
+  <si>
+    <t>U ziet een jongen de tv harder zetten terwijl zijn vader vertelt over zijn militaire dienst.</t>
+  </si>
+  <si>
+    <t>U ziet een tienermeisje in een lange jas op een hete zomermiddag.</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1465,19 +1465,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1508,10 +1508,10 @@
         <v>loy15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A74,vig_key!A:D,4,FALSE)</f>
@@ -1527,10 +1527,10 @@
         <v>auth15</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A73,vig_key!A:D,4,FALSE)</f>
@@ -1546,10 +1546,10 @@
         <v>carephys05</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A72,vig_key!A:D,4,FALSE)</f>
@@ -1565,10 +1565,10 @@
         <v>careemo05</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A71,vig_key!A:D,4,FALSE)</f>
@@ -1584,10 +1584,10 @@
         <v>lib10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A115,vig_key!A:D,4,FALSE)</f>
@@ -1603,10 +1603,10 @@
         <v>careemo14</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A70,vig_key!A:D,4,FALSE)</f>
@@ -1622,10 +1622,10 @@
         <v>fair13</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A69,vig_key!A:D,4,FALSE)</f>
@@ -1641,10 +1641,10 @@
         <v>fair10</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A68,vig_key!A:D,4,FALSE)</f>
@@ -1660,10 +1660,10 @@
         <v>socnorm11</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A67,vig_key!A:D,4,FALSE)</f>
@@ -1679,10 +1679,10 @@
         <v>lib11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A66,vig_key!A:D,4,FALSE)</f>
@@ -1698,10 +1698,10 @@
         <v>socnorm05</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A111,vig_key!A:D,4,FALSE)</f>
@@ -1717,10 +1717,10 @@
         <v>lib01</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A65,vig_key!A:D,4,FALSE)</f>
@@ -1736,10 +1736,10 @@
         <v>pur02</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A106,vig_key!A:D,4,FALSE)</f>
@@ -1755,10 +1755,10 @@
         <v>lib04</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A114,vig_key!A:D,4,FALSE)</f>
@@ -1774,10 +1774,10 @@
         <v>loy07</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A64,vig_key!A:D,4,FALSE)</f>
@@ -1793,10 +1793,10 @@
         <v>auth10</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A63,vig_key!A:D,4,FALSE)</f>
@@ -1812,10 +1812,10 @@
         <v>loy04</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A62,vig_key!A:D,4,FALSE)</f>
@@ -1831,10 +1831,10 @@
         <v>pur12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A112,vig_key!A:D,4,FALSE)</f>
@@ -1850,10 +1850,10 @@
         <v>loy02</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A117,vig_key!A:D,4,FALSE)</f>
@@ -1869,10 +1869,10 @@
         <v>lib02</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A61,vig_key!A:D,4,FALSE)</f>
@@ -1888,10 +1888,10 @@
         <v>carephys04</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A60,vig_key!A:D,4,FALSE)</f>
@@ -1907,10 +1907,10 @@
         <v>carephys12</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A59,vig_key!A:D,4,FALSE)</f>
@@ -1926,10 +1926,10 @@
         <v>socnorm02</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A77,vig_key!A:D,4,FALSE)</f>
@@ -1945,10 +1945,10 @@
         <v>careemo10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A97,vig_key!A:D,4,FALSE)</f>
@@ -1964,10 +1964,10 @@
         <v>careemo11</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A57,vig_key!A:D,4,FALSE)</f>
@@ -1983,10 +1983,10 @@
         <v>careemo07</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A98,vig_key!A:D,4,FALSE)</f>
@@ -2002,10 +2002,10 @@
         <v>auth03</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A56,vig_key!A:D,4,FALSE)</f>
@@ -2021,10 +2021,10 @@
         <v>careemo04</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A104,vig_key!A:D,4,FALSE)</f>
@@ -2040,10 +2040,10 @@
         <v>lib15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A94,vig_key!A:D,4,FALSE)</f>
@@ -2059,10 +2059,10 @@
         <v>loy05</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A119,vig_key!A:D,4,FALSE)</f>
@@ -2078,10 +2078,10 @@
         <v>carephys08</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E33" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A75,vig_key!A:D,4,FALSE)</f>
@@ -2097,10 +2097,10 @@
         <v>fair04</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A76,vig_key!A:D,4,FALSE)</f>
@@ -2116,10 +2116,10 @@
         <v>carephys14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A84,vig_key!A:D,4,FALSE)</f>
@@ -2135,10 +2135,10 @@
         <v>fair08</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A90,vig_key!A:D,4,FALSE)</f>
@@ -2154,10 +2154,10 @@
         <v>loy11</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E37" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A91,vig_key!A:D,4,FALSE)</f>
@@ -2173,10 +2173,10 @@
         <v>auth08</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A96,vig_key!A:D,4,FALSE)</f>
@@ -2192,10 +2192,10 @@
         <v>carephys10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A88,vig_key!A:D,4,FALSE)</f>
@@ -2211,10 +2211,10 @@
         <v>lib06</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A87,vig_key!A:D,4,FALSE)</f>
@@ -2230,10 +2230,10 @@
         <v>loy09</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E41" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A78,vig_key!A:D,4,FALSE)</f>
@@ -2249,10 +2249,10 @@
         <v>careemo06</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A85,vig_key!A:D,4,FALSE)</f>
@@ -2268,10 +2268,10 @@
         <v>auth05</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A83,vig_key!A:D,4,FALSE)</f>
@@ -2287,10 +2287,10 @@
         <v>auth09</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A82,vig_key!A:D,4,FALSE)</f>
@@ -2306,10 +2306,10 @@
         <v>auth06</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A81,vig_key!A:D,4,FALSE)</f>
@@ -2325,10 +2325,10 @@
         <v>auth01</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A116,vig_key!A:D,4,FALSE)</f>
@@ -2344,10 +2344,10 @@
         <v>socnorm06</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A99,vig_key!A:D,4,FALSE)</f>
@@ -2363,10 +2363,10 @@
         <v>socnorm13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A79,vig_key!A:D,4,FALSE)</f>
@@ -2382,10 +2382,10 @@
         <v>socnorm12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E49" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A86,vig_key!A:D,4,FALSE)</f>
@@ -2401,10 +2401,10 @@
         <v>fair01</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A89,vig_key!A:D,4,FALSE)</f>
@@ -2420,10 +2420,10 @@
         <v>pur14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A80,vig_key!A:D,4,FALSE)</f>
@@ -2439,10 +2439,10 @@
         <v>pur15</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A55,vig_key!A:D,4,FALSE)</f>
@@ -2458,10 +2458,10 @@
         <v>lib08</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E53" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A58,vig_key!A:D,4,FALSE)</f>
@@ -2477,10 +2477,10 @@
         <v>socnorm15</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A53,vig_key!A:D,4,FALSE)</f>
@@ -2496,10 +2496,10 @@
         <v>fair02</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A52,vig_key!A:D,4,FALSE)</f>
@@ -2515,10 +2515,10 @@
         <v>pur08</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A103,vig_key!A:D,4,FALSE)</f>
@@ -2534,10 +2534,10 @@
         <v>pur10</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A24,vig_key!A:D,4,FALSE)</f>
@@ -2553,10 +2553,10 @@
         <v>carephys02</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A23,vig_key!A:D,4,FALSE)</f>
@@ -2572,10 +2572,10 @@
         <v>carephys13</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A22,vig_key!A:D,4,FALSE)</f>
@@ -2591,10 +2591,10 @@
         <v>careemo12</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A21,vig_key!A:D,4,FALSE)</f>
@@ -2610,10 +2610,10 @@
         <v>pur01</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A110,vig_key!A:D,4,FALSE)</f>
@@ -2629,10 +2629,10 @@
         <v>socnorm09</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A19,vig_key!A:D,4,FALSE)</f>
@@ -2648,10 +2648,10 @@
         <v>careemo02</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A18,vig_key!A:D,4,FALSE)</f>
@@ -2667,10 +2667,10 @@
         <v>auth14</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A17,vig_key!A:D,4,FALSE)</f>
@@ -2686,10 +2686,10 @@
         <v>loy03</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A16,vig_key!A:D,4,FALSE)</f>
@@ -2705,10 +2705,10 @@
         <v>fair06</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A15,vig_key!A:D,4,FALSE)</f>
@@ -2724,10 +2724,10 @@
         <v>careemo01</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E67" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A121,vig_key!A:D,4,FALSE)</f>
@@ -2743,10 +2743,10 @@
         <v>socnorm14</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A25,vig_key!A:D,4,FALSE)</f>
@@ -2762,10 +2762,10 @@
         <v>carephys06</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E69" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A120,vig_key!A:D,4,FALSE)</f>
@@ -2781,10 +2781,10 @@
         <v>socnorm03</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A14,vig_key!A:D,4,FALSE)</f>
@@ -2800,10 +2800,10 @@
         <v>pur07</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E71" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A12,vig_key!A:D,4,FALSE)</f>
@@ -2819,10 +2819,10 @@
         <v>fair12</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A11,vig_key!A:D,4,FALSE)</f>
@@ -2838,10 +2838,10 @@
         <v>pur09</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E73" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A108,vig_key!A:D,4,FALSE)</f>
@@ -2857,10 +2857,10 @@
         <v>carephys15</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A10,vig_key!A:D,4,FALSE)</f>
@@ -2876,10 +2876,10 @@
         <v>auth02</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E75" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A9,vig_key!A:D,4,FALSE)</f>
@@ -2895,10 +2895,10 @@
         <v>lib05</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A113,vig_key!A:D,4,FALSE)</f>
@@ -2914,10 +2914,10 @@
         <v>socnorm04</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E77" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A8,vig_key!A:D,4,FALSE)</f>
@@ -2933,10 +2933,10 @@
         <v>lib09</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A7,vig_key!A:D,4,FALSE)</f>
@@ -2952,10 +2952,10 @@
         <v>pur04</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E79" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A6,vig_key!A:D,4,FALSE)</f>
@@ -2971,10 +2971,10 @@
         <v>carephys03</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A95,vig_key!A:D,4,FALSE)</f>
@@ -2990,10 +2990,10 @@
         <v>fair03</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E81" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A5,vig_key!A:D,4,FALSE)</f>
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
+        <v>375</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A4,vig_key!A:D,4,FALSE)</f>
@@ -3047,10 +3047,10 @@
         <v>lib12</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A13,vig_key!A:D,4,FALSE)</f>
@@ -3066,10 +3066,10 @@
         <v>auth13</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E85" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A26,vig_key!A:D,4,FALSE)</f>
@@ -3085,10 +3085,10 @@
         <v>auth12</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A27,vig_key!A:D,4,FALSE)</f>
@@ -3104,10 +3104,10 @@
         <v>lib07</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E87" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A28,vig_key!A:D,4,FALSE)</f>
@@ -3123,10 +3123,10 @@
         <v>loy01</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A51,vig_key!A:D,4,FALSE)</f>
@@ -3142,10 +3142,10 @@
         <v>socnorm08</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E89" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A50,vig_key!A:D,4,FALSE)</f>
@@ -3161,10 +3161,10 @@
         <v>carephys01</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A49,vig_key!A:D,4,FALSE)</f>
@@ -3180,10 +3180,10 @@
         <v>fair11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E91" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A109,vig_key!A:D,4,FALSE)</f>
@@ -3199,10 +3199,10 @@
         <v>pur06</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A48,vig_key!A:D,4,FALSE)</f>
@@ -3218,10 +3218,10 @@
         <v>pur05</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E93" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A47,vig_key!A:D,4,FALSE)</f>
@@ -3237,10 +3237,10 @@
         <v>careemo03</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A46,vig_key!A:D,4,FALSE)</f>
@@ -3256,10 +3256,10 @@
         <v>careemo08</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E95" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A45,vig_key!A:D,4,FALSE)</f>
@@ -3275,10 +3275,10 @@
         <v>auth04</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A107,vig_key!A:D,4,FALSE)</f>
@@ -3294,10 +3294,10 @@
         <v>auth07</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E97" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A44,vig_key!A:D,4,FALSE)</f>
@@ -3313,10 +3313,10 @@
         <v>pur13</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A43,vig_key!A:D,4,FALSE)</f>
@@ -3332,10 +3332,10 @@
         <v>fair07</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E99" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A42,vig_key!A:D,4,FALSE)</f>
@@ -3351,10 +3351,10 @@
         <v>fair09</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A118,vig_key!A:D,4,FALSE)</f>
@@ -3370,10 +3370,10 @@
         <v>careemo13</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E101" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A41,vig_key!A:D,4,FALSE)</f>
@@ -3389,10 +3389,10 @@
         <v>carephys11</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A40,vig_key!A:D,4,FALSE)</f>
@@ -3408,10 +3408,10 @@
         <v>loy08</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E103" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A39,vig_key!A:D,4,FALSE)</f>
@@ -3427,10 +3427,10 @@
         <v>careemo09</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A38,vig_key!A:D,4,FALSE)</f>
@@ -3446,10 +3446,10 @@
         <v>careemo15</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E105" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A37,vig_key!A:D,4,FALSE)</f>
@@ -3465,10 +3465,10 @@
         <v>loy13</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A36,vig_key!A:D,4,FALSE)</f>
@@ -3484,10 +3484,10 @@
         <v>socnorm01</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E107" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A35,vig_key!A:D,4,FALSE)</f>
@@ -3503,10 +3503,10 @@
         <v>fair05</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A34,vig_key!A:D,4,FALSE)</f>
@@ -3522,10 +3522,10 @@
         <v>socnorm10</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E109" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A101,vig_key!A:D,4,FALSE)</f>
@@ -3541,10 +3541,10 @@
         <v>lib14</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A33,vig_key!A:D,4,FALSE)</f>
@@ -3560,10 +3560,10 @@
         <v>carephys07</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E111" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A32,vig_key!A:D,4,FALSE)</f>
@@ -3579,10 +3579,10 @@
         <v>pur03</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A31,vig_key!A:D,4,FALSE)</f>
@@ -3598,10 +3598,10 @@
         <v>carephys09</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E113" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A100,vig_key!A:D,4,FALSE)</f>
@@ -3617,10 +3617,10 @@
         <v>fair14</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A30,vig_key!A:D,4,FALSE)</f>
@@ -3636,10 +3636,10 @@
         <v>loy10</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E115" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A105,vig_key!A:D,4,FALSE)</f>
@@ -3655,10 +3655,10 @@
         <v>socnorm07</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A102,vig_key!A:D,4,FALSE)</f>
@@ -3674,10 +3674,10 @@
         <v>fair15</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E117" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A93,vig_key!A:D,4,FALSE)</f>
@@ -3693,10 +3693,10 @@
         <v>loy12</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A29,vig_key!A:D,4,FALSE)</f>
@@ -3712,10 +3712,10 @@
         <v>loy06</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E119" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A92,vig_key!A:D,4,FALSE)</f>
@@ -3731,10 +3731,10 @@
         <v>pur11</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A20,vig_key!A:D,4,FALSE)</f>
@@ -3750,10 +3750,10 @@
         <v>lib03</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E121" s="5" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A54,vig_key!A:D,4,FALSE)</f>
@@ -3785,13 +3785,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3813,13 +3813,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3827,13 +3827,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3841,13 +3841,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3855,13 +3855,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3869,13 +3869,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3883,13 +3883,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3897,13 +3897,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3911,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3925,13 +3925,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3939,13 +3939,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3953,13 +3953,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3967,13 +3967,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3981,13 +3981,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3995,13 +3995,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4009,13 +4009,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4023,13 +4023,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4037,13 +4037,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4051,13 +4051,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4065,13 +4065,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4079,13 +4079,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4093,13 +4093,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4107,13 +4107,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4121,13 +4121,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4135,13 +4135,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,13 +4149,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4163,13 +4163,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4177,13 +4177,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4191,13 +4191,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4205,13 +4205,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4219,13 +4219,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,13 +4233,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4247,13 +4247,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4261,13 +4261,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,13 +4275,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4289,13 +4289,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4303,13 +4303,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4317,13 +4317,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4331,13 +4331,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4345,13 +4345,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4359,13 +4359,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4373,13 +4373,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4387,13 +4387,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4401,13 +4401,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4415,13 +4415,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4429,13 +4429,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,13 +4443,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4457,13 +4457,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4471,13 +4471,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,13 +4485,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4499,13 +4499,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4513,13 +4513,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4527,13 +4527,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4541,13 +4541,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4555,13 +4555,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4569,13 +4569,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4583,13 +4583,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4597,13 +4597,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4611,13 +4611,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4625,13 +4625,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4639,13 +4639,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4653,13 +4653,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4667,13 +4667,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4681,13 +4681,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4695,13 +4695,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4709,13 +4709,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4723,13 +4723,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4737,13 +4737,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4751,13 +4751,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4765,13 +4765,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4779,13 +4779,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4793,13 +4793,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4807,13 +4807,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4821,13 +4821,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4835,13 +4835,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4849,13 +4849,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4863,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4877,13 +4877,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4891,13 +4891,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4905,13 +4905,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4919,13 +4919,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4933,13 +4933,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4947,13 +4947,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4961,13 +4961,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4975,13 +4975,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -4989,13 +4989,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5003,13 +5003,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5017,13 +5017,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5031,13 +5031,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5045,13 +5045,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5059,13 +5059,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5073,13 +5073,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5087,13 +5087,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5101,13 +5101,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5115,13 +5115,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5129,13 +5129,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5143,13 +5143,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5157,13 +5157,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5171,13 +5171,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5185,13 +5185,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5199,13 +5199,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5213,13 +5213,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5227,13 +5227,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5241,13 +5241,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5255,13 +5255,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5269,13 +5269,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5283,13 +5283,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5297,13 +5297,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5311,13 +5311,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5325,13 +5325,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5339,13 +5339,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5353,13 +5353,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5367,13 +5367,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5381,13 +5381,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5395,13 +5395,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5409,13 +5409,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5423,13 +5423,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5437,13 +5437,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5451,13 +5451,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5465,13 +5465,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/vig_text_english_dutch.xlsx
+++ b/vig_text_english_dutch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esmeekouwen/Documents/Mijn Documenten/Universiteit/Moral Polarisation Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminjargow/Downloads/mft_replic_psychopy-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A21EC-D701-8444-B79D-371E21BFFD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A23565-FC1C-C44E-8642-5E67F4C28FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="vig_key" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vig_key!$A$1:$D$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vig_text_engl_dutch!$A$1:$E$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="377">
   <si>
     <t>You see a staff member talking loudly and interrupting the mayor's speech to the public.</t>
   </si>
@@ -1225,16 +1226,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{13E8D6BC-061C-8B4F-9955-0D5DC7641B02}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1453,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1467,7 +1467,7 @@
       <c r="A1" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1476,7 +1476,7 @@
       <c r="D1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>VLOOKUP(vig_text_engl_dutch!A2,vig_key!A:D,4,FALSE)</f>
         <v>auth</v>
       </c>
@@ -1504,8 +1504,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A74,vig_key!A:D,2,FALSE)</f>
-        <v>loy15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A3,vig_key!A:D,2,FALSE)</f>
+        <v>loy14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>141</v>
@@ -1513,8 +1513,8 @@
       <c r="D3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A74,vig_key!A:D,4,FALSE)</f>
+      <c r="E3" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A3,vig_key!A:D,4,FALSE)</f>
         <v>loy</v>
       </c>
     </row>
@@ -1523,8 +1523,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A73,vig_key!A:D,2,FALSE)</f>
-        <v>auth15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A4,vig_key!A:D,2,FALSE)</f>
+        <v>lib13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>139</v>
@@ -1532,9 +1532,9 @@
       <c r="D4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A73,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E4" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A4,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1542,8 +1542,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A72,vig_key!A:D,2,FALSE)</f>
-        <v>carephys05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A5,vig_key!A:D,2,FALSE)</f>
+        <v>fair03</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>137</v>
@@ -1551,9 +1551,9 @@
       <c r="D5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A72,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A5,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1561,8 +1561,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A71,vig_key!A:D,2,FALSE)</f>
-        <v>careemo05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A6,vig_key!A:D,2,FALSE)</f>
+        <v>pur04</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>135</v>
@@ -1570,9 +1570,9 @@
       <c r="D6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A71,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E6" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A6,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1580,8 +1580,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A115,vig_key!A:D,2,FALSE)</f>
-        <v>lib10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A7,vig_key!A:D,2,FALSE)</f>
+        <v>lib09</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>222</v>
@@ -1589,8 +1589,8 @@
       <c r="D7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A115,vig_key!A:D,4,FALSE)</f>
+      <c r="E7" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A7,vig_key!A:D,4,FALSE)</f>
         <v>lib</v>
       </c>
     </row>
@@ -1599,8 +1599,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A70,vig_key!A:D,2,FALSE)</f>
-        <v>careemo14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A8,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm04</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>133</v>
@@ -1608,9 +1608,9 @@
       <c r="D8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A70,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E8" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A8,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1618,8 +1618,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A69,vig_key!A:D,2,FALSE)</f>
-        <v>fair13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A9,vig_key!A:D,2,FALSE)</f>
+        <v>auth02</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>131</v>
@@ -1627,9 +1627,9 @@
       <c r="D9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A69,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A9,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1637,8 +1637,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A68,vig_key!A:D,2,FALSE)</f>
-        <v>fair10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A10,vig_key!A:D,2,FALSE)</f>
+        <v>carephys15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>129</v>
@@ -1646,9 +1646,9 @@
       <c r="D10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A68,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E10" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A10,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1656,8 +1656,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A67,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A11,vig_key!A:D,2,FALSE)</f>
+        <v>fair12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>127</v>
@@ -1665,9 +1665,9 @@
       <c r="D11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A67,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E11" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A11,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1675,8 +1675,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A66,vig_key!A:D,2,FALSE)</f>
-        <v>lib11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A12,vig_key!A:D,2,FALSE)</f>
+        <v>pur07</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>125</v>
@@ -1684,9 +1684,9 @@
       <c r="D12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A66,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E12" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A12,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1694,8 +1694,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A111,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A13,vig_key!A:D,2,FALSE)</f>
+        <v>lib12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>214</v>
@@ -1703,9 +1703,9 @@
       <c r="D13" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A111,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A13,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1713,8 +1713,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A65,vig_key!A:D,2,FALSE)</f>
-        <v>lib01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A14,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm03</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>123</v>
@@ -1722,9 +1722,9 @@
       <c r="D14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A65,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E14" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A14,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1732,8 +1732,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A106,vig_key!A:D,2,FALSE)</f>
-        <v>pur02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A15,vig_key!A:D,2,FALSE)</f>
+        <v>fair06</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>204</v>
@@ -1741,9 +1741,9 @@
       <c r="D15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A106,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E15" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A15,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,8 +1751,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A114,vig_key!A:D,2,FALSE)</f>
-        <v>lib04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A16,vig_key!A:D,2,FALSE)</f>
+        <v>loy03</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>220</v>
@@ -1760,9 +1760,9 @@
       <c r="D16" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A114,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E16" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A16,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,8 +1770,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A64,vig_key!A:D,2,FALSE)</f>
-        <v>loy07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A17,vig_key!A:D,2,FALSE)</f>
+        <v>auth14</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>121</v>
@@ -1779,9 +1779,9 @@
       <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A64,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A17,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1789,8 +1789,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A63,vig_key!A:D,2,FALSE)</f>
-        <v>auth10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A18,vig_key!A:D,2,FALSE)</f>
+        <v>careemo02</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>119</v>
@@ -1798,9 +1798,9 @@
       <c r="D18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A63,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E18" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A18,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1808,8 +1808,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A62,vig_key!A:D,2,FALSE)</f>
-        <v>loy04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A19,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm09</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>117</v>
@@ -1817,9 +1817,9 @@
       <c r="D19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A62,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E19" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A19,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1827,8 +1827,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A112,vig_key!A:D,2,FALSE)</f>
-        <v>pur12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A20,vig_key!A:D,2,FALSE)</f>
+        <v>pur11</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>216</v>
@@ -1836,8 +1836,8 @@
       <c r="D20" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A112,vig_key!A:D,4,FALSE)</f>
+      <c r="E20" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A20,vig_key!A:D,4,FALSE)</f>
         <v>pur</v>
       </c>
     </row>
@@ -1846,8 +1846,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A117,vig_key!A:D,2,FALSE)</f>
-        <v>loy02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A21,vig_key!A:D,2,FALSE)</f>
+        <v>careemo12</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>226</v>
@@ -1855,9 +1855,9 @@
       <c r="D21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A117,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E21" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A21,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1865,8 +1865,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A61,vig_key!A:D,2,FALSE)</f>
-        <v>lib02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A22,vig_key!A:D,2,FALSE)</f>
+        <v>carephys13</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>115</v>
@@ -1874,9 +1874,9 @@
       <c r="D22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A61,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E22" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A22,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1884,8 +1884,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A60,vig_key!A:D,2,FALSE)</f>
-        <v>carephys04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A23,vig_key!A:D,2,FALSE)</f>
+        <v>carephys02</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>113</v>
@@ -1893,8 +1893,8 @@
       <c r="D23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A60,vig_key!A:D,4,FALSE)</f>
+      <c r="E23" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A23,vig_key!A:D,4,FALSE)</f>
         <v>carep</v>
       </c>
     </row>
@@ -1903,8 +1903,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A59,vig_key!A:D,2,FALSE)</f>
-        <v>carephys12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A24,vig_key!A:D,2,FALSE)</f>
+        <v>pur10</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>111</v>
@@ -1912,9 +1912,9 @@
       <c r="D24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A59,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E24" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A24,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1922,8 +1922,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A77,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A25,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm14</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>147</v>
@@ -1931,8 +1931,8 @@
       <c r="D25" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E25" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A77,vig_key!A:D,4,FALSE)</f>
+      <c r="E25" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A25,vig_key!A:D,4,FALSE)</f>
         <v>socn</v>
       </c>
     </row>
@@ -1941,8 +1941,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A97,vig_key!A:D,2,FALSE)</f>
-        <v>careemo10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A26,vig_key!A:D,2,FALSE)</f>
+        <v>auth13</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>186</v>
@@ -1950,9 +1950,9 @@
       <c r="D26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A97,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E26" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A26,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1960,8 +1960,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A57,vig_key!A:D,2,FALSE)</f>
-        <v>careemo11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A27,vig_key!A:D,2,FALSE)</f>
+        <v>auth12</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>107</v>
@@ -1969,9 +1969,9 @@
       <c r="D27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A57,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E27" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A27,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1979,8 +1979,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A98,vig_key!A:D,2,FALSE)</f>
-        <v>careemo07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A28,vig_key!A:D,2,FALSE)</f>
+        <v>lib07</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>188</v>
@@ -1988,9 +1988,9 @@
       <c r="D28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A98,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E28" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A28,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1998,8 +1998,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A56,vig_key!A:D,2,FALSE)</f>
-        <v>auth03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A29,vig_key!A:D,2,FALSE)</f>
+        <v>loy12</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>105</v>
@@ -2007,9 +2007,9 @@
       <c r="D29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A56,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E29" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A29,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2017,8 +2017,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A104,vig_key!A:D,2,FALSE)</f>
-        <v>careemo04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A30,vig_key!A:D,2,FALSE)</f>
+        <v>fair14</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>200</v>
@@ -2026,9 +2026,9 @@
       <c r="D30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A104,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E30" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A30,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2036,8 +2036,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A94,vig_key!A:D,2,FALSE)</f>
-        <v>lib15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A31,vig_key!A:D,2,FALSE)</f>
+        <v>pur03</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>180</v>
@@ -2045,9 +2045,9 @@
       <c r="D31" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A94,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E31" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A31,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2055,8 +2055,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A119,vig_key!A:D,2,FALSE)</f>
-        <v>loy05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A32,vig_key!A:D,2,FALSE)</f>
+        <v>carephys07</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>230</v>
@@ -2064,9 +2064,9 @@
       <c r="D32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A119,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E32" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A32,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2074,8 +2074,8 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A75,vig_key!A:D,2,FALSE)</f>
-        <v>carephys08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A33,vig_key!A:D,2,FALSE)</f>
+        <v>lib14</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>143</v>
@@ -2083,9 +2083,9 @@
       <c r="D33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A75,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E33" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A33,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2093,8 +2093,8 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A76,vig_key!A:D,2,FALSE)</f>
-        <v>fair04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A34,vig_key!A:D,2,FALSE)</f>
+        <v>fair05</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>145</v>
@@ -2102,8 +2102,8 @@
       <c r="D34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A76,vig_key!A:D,4,FALSE)</f>
+      <c r="E34" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A34,vig_key!A:D,4,FALSE)</f>
         <v>fair</v>
       </c>
     </row>
@@ -2112,8 +2112,8 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A84,vig_key!A:D,2,FALSE)</f>
-        <v>carephys14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A35,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm01</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>160</v>
@@ -2121,9 +2121,9 @@
       <c r="D35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A84,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E35" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A35,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2131,8 +2131,8 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A90,vig_key!A:D,2,FALSE)</f>
-        <v>fair08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A36,vig_key!A:D,2,FALSE)</f>
+        <v>loy13</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>172</v>
@@ -2140,9 +2140,9 @@
       <c r="D36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A90,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E36" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A36,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2150,8 +2150,8 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A91,vig_key!A:D,2,FALSE)</f>
-        <v>loy11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A37,vig_key!A:D,2,FALSE)</f>
+        <v>careemo15</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>174</v>
@@ -2159,9 +2159,9 @@
       <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A91,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E37" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A37,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2169,8 +2169,8 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A96,vig_key!A:D,2,FALSE)</f>
-        <v>auth08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A38,vig_key!A:D,2,FALSE)</f>
+        <v>careemo09</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>184</v>
@@ -2178,9 +2178,9 @@
       <c r="D38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A96,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E38" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A38,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2188,8 +2188,8 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A88,vig_key!A:D,2,FALSE)</f>
-        <v>carephys10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A39,vig_key!A:D,2,FALSE)</f>
+        <v>loy08</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>168</v>
@@ -2197,9 +2197,9 @@
       <c r="D39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A88,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E39" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A39,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2207,8 +2207,8 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A87,vig_key!A:D,2,FALSE)</f>
-        <v>lib06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A40,vig_key!A:D,2,FALSE)</f>
+        <v>carephys11</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>166</v>
@@ -2216,9 +2216,9 @@
       <c r="D40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A87,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E40" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A40,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2226,8 +2226,8 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A78,vig_key!A:D,2,FALSE)</f>
-        <v>loy09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A41,vig_key!A:D,2,FALSE)</f>
+        <v>careemo13</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>148</v>
@@ -2235,9 +2235,9 @@
       <c r="D41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A78,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E41" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A41,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2245,8 +2245,8 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A85,vig_key!A:D,2,FALSE)</f>
-        <v>careemo06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A42,vig_key!A:D,2,FALSE)</f>
+        <v>fair07</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>162</v>
@@ -2254,9 +2254,9 @@
       <c r="D42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A85,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E42" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A42,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2264,8 +2264,8 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A83,vig_key!A:D,2,FALSE)</f>
-        <v>auth05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A43,vig_key!A:D,2,FALSE)</f>
+        <v>pur13</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>158</v>
@@ -2273,9 +2273,9 @@
       <c r="D43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A83,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E43" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A43,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2283,8 +2283,8 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A82,vig_key!A:D,2,FALSE)</f>
-        <v>auth09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A44,vig_key!A:D,2,FALSE)</f>
+        <v>auth07</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>156</v>
@@ -2292,8 +2292,8 @@
       <c r="D44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A82,vig_key!A:D,4,FALSE)</f>
+      <c r="E44" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A44,vig_key!A:D,4,FALSE)</f>
         <v>auth</v>
       </c>
     </row>
@@ -2302,8 +2302,8 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A81,vig_key!A:D,2,FALSE)</f>
-        <v>auth06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A45,vig_key!A:D,2,FALSE)</f>
+        <v>careemo08</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>154</v>
@@ -2311,9 +2311,9 @@
       <c r="D45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A81,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E45" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A45,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2321,8 +2321,8 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A116,vig_key!A:D,2,FALSE)</f>
-        <v>auth01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A46,vig_key!A:D,2,FALSE)</f>
+        <v>careemo03</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>224</v>
@@ -2330,9 +2330,9 @@
       <c r="D46" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A116,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E46" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A46,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2340,8 +2340,8 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A99,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A47,vig_key!A:D,2,FALSE)</f>
+        <v>pur05</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>190</v>
@@ -2349,9 +2349,9 @@
       <c r="D47" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A99,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E47" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A47,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2359,8 +2359,8 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A79,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A48,vig_key!A:D,2,FALSE)</f>
+        <v>pur06</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>150</v>
@@ -2368,9 +2368,9 @@
       <c r="D48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A79,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E48" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A48,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2378,8 +2378,8 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A86,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A49,vig_key!A:D,2,FALSE)</f>
+        <v>carephys01</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>164</v>
@@ -2387,9 +2387,9 @@
       <c r="D49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A86,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E49" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A49,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2397,8 +2397,8 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A89,vig_key!A:D,2,FALSE)</f>
-        <v>fair01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A50,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm08</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>170</v>
@@ -2406,9 +2406,9 @@
       <c r="D50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A89,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E50" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A50,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2416,8 +2416,8 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A80,vig_key!A:D,2,FALSE)</f>
-        <v>pur14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A51,vig_key!A:D,2,FALSE)</f>
+        <v>loy01</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>152</v>
@@ -2425,9 +2425,9 @@
       <c r="D51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A80,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E51" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A51,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2435,8 +2435,8 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A55,vig_key!A:D,2,FALSE)</f>
-        <v>pur15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A52,vig_key!A:D,2,FALSE)</f>
+        <v>fair02</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>103</v>
@@ -2444,9 +2444,9 @@
       <c r="D52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A55,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E52" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A52,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2454,8 +2454,8 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A58,vig_key!A:D,2,FALSE)</f>
-        <v>lib08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A53,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm15</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>109</v>
@@ -2463,9 +2463,9 @@
       <c r="D53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A58,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E53" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A53,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2473,8 +2473,8 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A53,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A54,vig_key!A:D,2,FALSE)</f>
+        <v>lib03</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>100</v>
@@ -2482,9 +2482,9 @@
       <c r="D54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A53,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E54" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A54,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2492,8 +2492,8 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A52,vig_key!A:D,2,FALSE)</f>
-        <v>fair02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A55,vig_key!A:D,2,FALSE)</f>
+        <v>pur15</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>98</v>
@@ -2501,9 +2501,9 @@
       <c r="D55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A52,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E55" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A55,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2511,8 +2511,8 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A103,vig_key!A:D,2,FALSE)</f>
-        <v>pur08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A56,vig_key!A:D,2,FALSE)</f>
+        <v>auth03</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>198</v>
@@ -2520,9 +2520,9 @@
       <c r="D56" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A103,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E56" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A56,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2530,8 +2530,8 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A24,vig_key!A:D,2,FALSE)</f>
-        <v>pur10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A57,vig_key!A:D,2,FALSE)</f>
+        <v>careemo11</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>42</v>
@@ -2539,9 +2539,9 @@
       <c r="D57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A24,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E57" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A57,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2549,8 +2549,8 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A23,vig_key!A:D,2,FALSE)</f>
-        <v>carephys02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A58,vig_key!A:D,2,FALSE)</f>
+        <v>lib08</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>40</v>
@@ -2558,9 +2558,9 @@
       <c r="D58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A23,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E58" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A58,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2568,8 +2568,8 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A22,vig_key!A:D,2,FALSE)</f>
-        <v>carephys13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A59,vig_key!A:D,2,FALSE)</f>
+        <v>carephys12</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>38</v>
@@ -2577,8 +2577,8 @@
       <c r="D59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A22,vig_key!A:D,4,FALSE)</f>
+      <c r="E59" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A59,vig_key!A:D,4,FALSE)</f>
         <v>carep</v>
       </c>
     </row>
@@ -2587,8 +2587,8 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A21,vig_key!A:D,2,FALSE)</f>
-        <v>careemo12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A60,vig_key!A:D,2,FALSE)</f>
+        <v>carephys04</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>36</v>
@@ -2596,9 +2596,9 @@
       <c r="D60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A21,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E60" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A60,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2606,8 +2606,8 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A110,vig_key!A:D,2,FALSE)</f>
-        <v>pur01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A61,vig_key!A:D,2,FALSE)</f>
+        <v>lib02</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>212</v>
@@ -2615,9 +2615,9 @@
       <c r="D61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A110,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E61" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A61,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2625,8 +2625,8 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A19,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A62,vig_key!A:D,2,FALSE)</f>
+        <v>loy04</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -2634,9 +2634,9 @@
       <c r="D62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A19,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E62" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A62,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2644,8 +2644,8 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A18,vig_key!A:D,2,FALSE)</f>
-        <v>careemo02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A63,vig_key!A:D,2,FALSE)</f>
+        <v>auth10</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>30</v>
@@ -2653,9 +2653,9 @@
       <c r="D63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A18,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E63" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A63,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2663,8 +2663,8 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A17,vig_key!A:D,2,FALSE)</f>
-        <v>auth14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A64,vig_key!A:D,2,FALSE)</f>
+        <v>loy07</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
@@ -2672,9 +2672,9 @@
       <c r="D64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A17,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E64" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A64,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2682,8 +2682,8 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A16,vig_key!A:D,2,FALSE)</f>
-        <v>loy03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A65,vig_key!A:D,2,FALSE)</f>
+        <v>lib01</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>26</v>
@@ -2691,9 +2691,9 @@
       <c r="D65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A16,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E65" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A65,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2701,8 +2701,8 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A15,vig_key!A:D,2,FALSE)</f>
-        <v>fair06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A66,vig_key!A:D,2,FALSE)</f>
+        <v>lib11</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
@@ -2710,9 +2710,9 @@
       <c r="D66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A15,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E66" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A66,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2720,8 +2720,8 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A121,vig_key!A:D,2,FALSE)</f>
-        <v>careemo01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A67,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm11</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>234</v>
@@ -2729,9 +2729,9 @@
       <c r="D67" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E67" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A121,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E67" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A67,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2739,8 +2739,8 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A25,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A68,vig_key!A:D,2,FALSE)</f>
+        <v>fair10</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>44</v>
@@ -2748,9 +2748,9 @@
       <c r="D68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A25,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E68" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A68,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2758,8 +2758,8 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A120,vig_key!A:D,2,FALSE)</f>
-        <v>carephys06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A69,vig_key!A:D,2,FALSE)</f>
+        <v>fair13</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>232</v>
@@ -2767,9 +2767,9 @@
       <c r="D69" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E69" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A120,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E69" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A69,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2777,8 +2777,8 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A14,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A70,vig_key!A:D,2,FALSE)</f>
+        <v>careemo14</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
@@ -2786,9 +2786,9 @@
       <c r="D70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E70" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A14,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E70" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A70,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2796,8 +2796,8 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A12,vig_key!A:D,2,FALSE)</f>
-        <v>pur07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A71,vig_key!A:D,2,FALSE)</f>
+        <v>careemo05</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
@@ -2805,9 +2805,9 @@
       <c r="D71" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E71" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A12,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E71" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A71,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2815,8 +2815,8 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A11,vig_key!A:D,2,FALSE)</f>
-        <v>fair12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A72,vig_key!A:D,2,FALSE)</f>
+        <v>carephys05</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
@@ -2824,9 +2824,9 @@
       <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A11,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E72" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A72,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2834,8 +2834,8 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A108,vig_key!A:D,2,FALSE)</f>
-        <v>pur09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A73,vig_key!A:D,2,FALSE)</f>
+        <v>auth15</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>208</v>
@@ -2843,9 +2843,9 @@
       <c r="D73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A108,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E73" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A73,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2853,8 +2853,8 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A10,vig_key!A:D,2,FALSE)</f>
-        <v>carephys15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A74,vig_key!A:D,2,FALSE)</f>
+        <v>loy15</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -2862,9 +2862,9 @@
       <c r="D74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A10,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E74" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A74,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2872,8 +2872,8 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A9,vig_key!A:D,2,FALSE)</f>
-        <v>auth02</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A75,vig_key!A:D,2,FALSE)</f>
+        <v>carephys08</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
@@ -2881,9 +2881,9 @@
       <c r="D75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A9,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E75" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A75,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2891,8 +2891,8 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A113,vig_key!A:D,2,FALSE)</f>
-        <v>lib05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A76,vig_key!A:D,2,FALSE)</f>
+        <v>fair04</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>218</v>
@@ -2900,9 +2900,9 @@
       <c r="D76" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A113,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E76" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A76,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2910,8 +2910,8 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A8,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A77,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm02</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
@@ -2919,8 +2919,8 @@
       <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A8,vig_key!A:D,4,FALSE)</f>
+      <c r="E77" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A77,vig_key!A:D,4,FALSE)</f>
         <v>socn</v>
       </c>
     </row>
@@ -2929,8 +2929,8 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A7,vig_key!A:D,2,FALSE)</f>
-        <v>lib09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A78,vig_key!A:D,2,FALSE)</f>
+        <v>loy09</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2938,9 +2938,9 @@
       <c r="D78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A7,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E78" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A78,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2948,8 +2948,8 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A6,vig_key!A:D,2,FALSE)</f>
-        <v>pur04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A79,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm13</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
@@ -2957,9 +2957,9 @@
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A6,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E79" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A79,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2967,8 +2967,8 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A95,vig_key!A:D,2,FALSE)</f>
-        <v>carephys03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A80,vig_key!A:D,2,FALSE)</f>
+        <v>pur14</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>182</v>
@@ -2976,9 +2976,9 @@
       <c r="D80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A95,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E80" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A80,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2986,8 +2986,8 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A5,vig_key!A:D,2,FALSE)</f>
-        <v>fair03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A81,vig_key!A:D,2,FALSE)</f>
+        <v>auth06</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -2995,9 +2995,9 @@
       <c r="D81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A5,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E81" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A81,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3005,8 +3005,8 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A4,vig_key!A:D,2,FALSE)</f>
-        <v>lib13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A82,vig_key!A:D,2,FALSE)</f>
+        <v>auth09</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -3014,9 +3014,9 @@
       <c r="D82" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E82" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A4,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E82" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A82,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3024,8 +3024,8 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A3,vig_key!A:D,2,FALSE)</f>
-        <v>loy14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A83,vig_key!A:D,2,FALSE)</f>
+        <v>auth05</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -3033,9 +3033,9 @@
       <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A3,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E83" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A83,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3043,8 +3043,8 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A13,vig_key!A:D,2,FALSE)</f>
-        <v>lib12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A84,vig_key!A:D,2,FALSE)</f>
+        <v>carephys14</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>20</v>
@@ -3052,9 +3052,9 @@
       <c r="D84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A13,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E84" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A84,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3062,8 +3062,8 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A26,vig_key!A:D,2,FALSE)</f>
-        <v>auth13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A85,vig_key!A:D,2,FALSE)</f>
+        <v>careemo06</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>46</v>
@@ -3071,9 +3071,9 @@
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E85" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A26,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E85" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A85,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3081,8 +3081,8 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A27,vig_key!A:D,2,FALSE)</f>
-        <v>auth12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A86,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm12</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>48</v>
@@ -3090,9 +3090,9 @@
       <c r="D86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A27,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E86" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A86,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3100,8 +3100,8 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A28,vig_key!A:D,2,FALSE)</f>
-        <v>lib07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A87,vig_key!A:D,2,FALSE)</f>
+        <v>lib06</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>50</v>
@@ -3109,8 +3109,8 @@
       <c r="D87" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E87" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A28,vig_key!A:D,4,FALSE)</f>
+      <c r="E87" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A87,vig_key!A:D,4,FALSE)</f>
         <v>lib</v>
       </c>
     </row>
@@ -3119,8 +3119,8 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A51,vig_key!A:D,2,FALSE)</f>
-        <v>loy01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A88,vig_key!A:D,2,FALSE)</f>
+        <v>carephys10</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>96</v>
@@ -3128,9 +3128,9 @@
       <c r="D88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E88" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A51,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E88" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A88,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3138,8 +3138,8 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A50,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A89,vig_key!A:D,2,FALSE)</f>
+        <v>fair01</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>94</v>
@@ -3147,9 +3147,9 @@
       <c r="D89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E89" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A50,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E89" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A89,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3157,8 +3157,8 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A49,vig_key!A:D,2,FALSE)</f>
-        <v>carephys01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A90,vig_key!A:D,2,FALSE)</f>
+        <v>fair08</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>92</v>
@@ -3166,9 +3166,9 @@
       <c r="D90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E90" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A49,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E90" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A90,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3176,8 +3176,8 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A109,vig_key!A:D,2,FALSE)</f>
-        <v>fair11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A91,vig_key!A:D,2,FALSE)</f>
+        <v>loy11</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>210</v>
@@ -3185,9 +3185,9 @@
       <c r="D91" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E91" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A109,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E91" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A91,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3195,8 +3195,8 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A48,vig_key!A:D,2,FALSE)</f>
-        <v>pur06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A92,vig_key!A:D,2,FALSE)</f>
+        <v>loy06</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>90</v>
@@ -3204,9 +3204,9 @@
       <c r="D92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A48,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E92" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A92,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3214,8 +3214,8 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A47,vig_key!A:D,2,FALSE)</f>
-        <v>pur05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A93,vig_key!A:D,2,FALSE)</f>
+        <v>fair15</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>88</v>
@@ -3223,9 +3223,9 @@
       <c r="D93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E93" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A47,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E93" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A93,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3233,8 +3233,8 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A46,vig_key!A:D,2,FALSE)</f>
-        <v>careemo03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A94,vig_key!A:D,2,FALSE)</f>
+        <v>lib15</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>86</v>
@@ -3242,9 +3242,9 @@
       <c r="D94" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A46,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E94" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A94,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3252,8 +3252,8 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A45,vig_key!A:D,2,FALSE)</f>
-        <v>careemo08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A95,vig_key!A:D,2,FALSE)</f>
+        <v>carephys03</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>84</v>
@@ -3261,9 +3261,9 @@
       <c r="D95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E95" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A45,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E95" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A95,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3271,8 +3271,8 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A107,vig_key!A:D,2,FALSE)</f>
-        <v>auth04</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A96,vig_key!A:D,2,FALSE)</f>
+        <v>auth08</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>206</v>
@@ -3280,8 +3280,8 @@
       <c r="D96" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E96" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A107,vig_key!A:D,4,FALSE)</f>
+      <c r="E96" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A96,vig_key!A:D,4,FALSE)</f>
         <v>auth</v>
       </c>
     </row>
@@ -3290,8 +3290,8 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A44,vig_key!A:D,2,FALSE)</f>
-        <v>auth07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A97,vig_key!A:D,2,FALSE)</f>
+        <v>careemo10</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>82</v>
@@ -3299,9 +3299,9 @@
       <c r="D97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E97" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A44,vig_key!A:D,4,FALSE)</f>
-        <v>auth</v>
+      <c r="E97" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A97,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3309,8 +3309,8 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A43,vig_key!A:D,2,FALSE)</f>
-        <v>pur13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A98,vig_key!A:D,2,FALSE)</f>
+        <v>careemo07</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>80</v>
@@ -3318,9 +3318,9 @@
       <c r="D98" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E98" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A43,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E98" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A98,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3328,8 +3328,8 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A42,vig_key!A:D,2,FALSE)</f>
-        <v>fair07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A99,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm06</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>78</v>
@@ -3337,9 +3337,9 @@
       <c r="D99" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E99" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A42,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E99" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A99,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3347,8 +3347,8 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A118,vig_key!A:D,2,FALSE)</f>
-        <v>fair09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A100,vig_key!A:D,2,FALSE)</f>
+        <v>carephys09</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>228</v>
@@ -3356,9 +3356,9 @@
       <c r="D100" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A118,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E100" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A100,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3366,8 +3366,8 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A41,vig_key!A:D,2,FALSE)</f>
-        <v>careemo13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A101,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm10</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>76</v>
@@ -3375,9 +3375,9 @@
       <c r="D101" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E101" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A41,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E101" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A101,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3385,8 +3385,8 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A40,vig_key!A:D,2,FALSE)</f>
-        <v>carephys11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A102,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm07</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>74</v>
@@ -3394,9 +3394,9 @@
       <c r="D102" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E102" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A40,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E102" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A102,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3404,8 +3404,8 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A39,vig_key!A:D,2,FALSE)</f>
-        <v>loy08</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A103,vig_key!A:D,2,FALSE)</f>
+        <v>pur08</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>72</v>
@@ -3413,9 +3413,9 @@
       <c r="D103" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E103" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A39,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E103" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A103,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3423,8 +3423,8 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A38,vig_key!A:D,2,FALSE)</f>
-        <v>careemo09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A104,vig_key!A:D,2,FALSE)</f>
+        <v>careemo04</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>70</v>
@@ -3432,8 +3432,8 @@
       <c r="D104" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A38,vig_key!A:D,4,FALSE)</f>
+      <c r="E104" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A104,vig_key!A:D,4,FALSE)</f>
         <v>carem</v>
       </c>
     </row>
@@ -3442,8 +3442,8 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A37,vig_key!A:D,2,FALSE)</f>
-        <v>careemo15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A105,vig_key!A:D,2,FALSE)</f>
+        <v>loy10</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>68</v>
@@ -3451,9 +3451,9 @@
       <c r="D105" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E105" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A37,vig_key!A:D,4,FALSE)</f>
-        <v>carem</v>
+      <c r="E105" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A105,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3461,8 +3461,8 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A36,vig_key!A:D,2,FALSE)</f>
-        <v>loy13</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A106,vig_key!A:D,2,FALSE)</f>
+        <v>pur02</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>66</v>
@@ -3470,9 +3470,9 @@
       <c r="D106" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E106" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A36,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E106" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A106,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3480,8 +3480,8 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A35,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm01</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A107,vig_key!A:D,2,FALSE)</f>
+        <v>auth04</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>64</v>
@@ -3489,9 +3489,9 @@
       <c r="D107" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E107" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A35,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E107" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A107,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3499,8 +3499,8 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A34,vig_key!A:D,2,FALSE)</f>
-        <v>fair05</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A108,vig_key!A:D,2,FALSE)</f>
+        <v>pur09</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>62</v>
@@ -3508,9 +3508,9 @@
       <c r="D108" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E108" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A34,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E108" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A108,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3518,8 +3518,8 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A101,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A109,vig_key!A:D,2,FALSE)</f>
+        <v>fair11</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>194</v>
@@ -3527,9 +3527,9 @@
       <c r="D109" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A101,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E109" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A109,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3537,8 +3537,8 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A33,vig_key!A:D,2,FALSE)</f>
-        <v>lib14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A110,vig_key!A:D,2,FALSE)</f>
+        <v>pur01</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>60</v>
@@ -3546,9 +3546,9 @@
       <c r="D110" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A33,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E110" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A110,vig_key!A:D,4,FALSE)</f>
+        <v>pur</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3556,8 +3556,8 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A32,vig_key!A:D,2,FALSE)</f>
-        <v>carephys07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A111,vig_key!A:D,2,FALSE)</f>
+        <v>socnorm05</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>58</v>
@@ -3565,9 +3565,9 @@
       <c r="D111" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A32,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E111" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A111,vig_key!A:D,4,FALSE)</f>
+        <v>socn</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3575,8 +3575,8 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A31,vig_key!A:D,2,FALSE)</f>
-        <v>pur03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A112,vig_key!A:D,2,FALSE)</f>
+        <v>pur12</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>56</v>
@@ -3584,8 +3584,8 @@
       <c r="D112" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A31,vig_key!A:D,4,FALSE)</f>
+      <c r="E112" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A112,vig_key!A:D,4,FALSE)</f>
         <v>pur</v>
       </c>
     </row>
@@ -3594,8 +3594,8 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A100,vig_key!A:D,2,FALSE)</f>
-        <v>carephys09</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A113,vig_key!A:D,2,FALSE)</f>
+        <v>lib05</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>192</v>
@@ -3603,9 +3603,9 @@
       <c r="D113" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E113" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A100,vig_key!A:D,4,FALSE)</f>
-        <v>carep</v>
+      <c r="E113" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A113,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3613,8 +3613,8 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A30,vig_key!A:D,2,FALSE)</f>
-        <v>fair14</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A114,vig_key!A:D,2,FALSE)</f>
+        <v>lib04</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>54</v>
@@ -3622,9 +3622,9 @@
       <c r="D114" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A30,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E114" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A114,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3632,8 +3632,8 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A105,vig_key!A:D,2,FALSE)</f>
-        <v>loy10</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A115,vig_key!A:D,2,FALSE)</f>
+        <v>lib10</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>202</v>
@@ -3641,9 +3641,9 @@
       <c r="D115" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E115" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A105,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E115" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A115,vig_key!A:D,4,FALSE)</f>
+        <v>lib</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3651,8 +3651,8 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A102,vig_key!A:D,2,FALSE)</f>
-        <v>socnorm07</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A116,vig_key!A:D,2,FALSE)</f>
+        <v>auth01</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>196</v>
@@ -3660,9 +3660,9 @@
       <c r="D116" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E116" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A102,vig_key!A:D,4,FALSE)</f>
-        <v>socn</v>
+      <c r="E116" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A116,vig_key!A:D,4,FALSE)</f>
+        <v>auth</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3670,8 +3670,8 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A93,vig_key!A:D,2,FALSE)</f>
-        <v>fair15</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A117,vig_key!A:D,2,FALSE)</f>
+        <v>loy02</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>178</v>
@@ -3679,9 +3679,9 @@
       <c r="D117" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E117" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A93,vig_key!A:D,4,FALSE)</f>
-        <v>fair</v>
+      <c r="E117" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A117,vig_key!A:D,4,FALSE)</f>
+        <v>loy</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3689,8 +3689,8 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A29,vig_key!A:D,2,FALSE)</f>
-        <v>loy12</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A118,vig_key!A:D,2,FALSE)</f>
+        <v>fair09</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>52</v>
@@ -3698,9 +3698,9 @@
       <c r="D118" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E118" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A29,vig_key!A:D,4,FALSE)</f>
-        <v>loy</v>
+      <c r="E118" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A118,vig_key!A:D,4,FALSE)</f>
+        <v>fair</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3708,8 +3708,8 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A92,vig_key!A:D,2,FALSE)</f>
-        <v>loy06</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A119,vig_key!A:D,2,FALSE)</f>
+        <v>loy05</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>176</v>
@@ -3717,8 +3717,8 @@
       <c r="D119" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E119" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A92,vig_key!A:D,4,FALSE)</f>
+      <c r="E119" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A119,vig_key!A:D,4,FALSE)</f>
         <v>loy</v>
       </c>
     </row>
@@ -3727,8 +3727,8 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A20,vig_key!A:D,2,FALSE)</f>
-        <v>pur11</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A120,vig_key!A:D,2,FALSE)</f>
+        <v>carephys06</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>34</v>
@@ -3736,9 +3736,9 @@
       <c r="D120" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A20,vig_key!A:D,4,FALSE)</f>
-        <v>pur</v>
+      <c r="E120" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A120,vig_key!A:D,4,FALSE)</f>
+        <v>carep</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3746,8 +3746,8 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A54,vig_key!A:D,2,FALSE)</f>
-        <v>lib03</v>
+        <f>VLOOKUP(vig_text_engl_dutch!A121,vig_key!A:D,2,FALSE)</f>
+        <v>careemo01</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>102</v>
@@ -3755,12 +3755,17 @@
       <c r="D121" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E121" s="5" t="str">
-        <f>VLOOKUP(vig_text_engl_dutch!A54,vig_key!A:D,4,FALSE)</f>
-        <v>lib</v>
+      <c r="E121" s="4" t="str">
+        <f>VLOOKUP(vig_text_engl_dutch!A121,vig_key!A:D,4,FALSE)</f>
+        <v>carem</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E121" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
+      <sortCondition ref="A1:A121"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3772,1709 +3777,1717 @@
   </sheetPr>
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="12.6640625" style="3"/>
-    <col min="3" max="3" width="53.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="72.1640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="4">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="4">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="4">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="4">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="4">
+      <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="4">
+      <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="4">
+      <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="4">
+      <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="4">
+      <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+      <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="4">
+      <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="4">
+      <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="4">
+      <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="4">
+      <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="4">
+      <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="4">
+      <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="4">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="4">
+      <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="4">
+      <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="4">
+      <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="4">
+      <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="4">
+      <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="4">
+      <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="4">
+      <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="2" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D121" xr:uid="{7D510CBD-BE36-8E4D-BBDA-1A04980C2EF5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+      <sortCondition ref="C1:C121"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>